--- a/natmiOut/OldD2/LR-pairs_lrc2p/Amh-Amhr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Amh-Amhr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +95,6 @@
   </si>
   <si>
     <t>Amhr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.357092728140489</v>
+        <v>0.1560025</v>
       </c>
       <c r="H2">
-        <v>0.357092728140489</v>
+        <v>0.312005</v>
       </c>
       <c r="I2">
-        <v>0.5275468004392498</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J2">
-        <v>0.5275468004392498</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.645944857197578</v>
+        <v>0.657332</v>
       </c>
       <c r="N2">
-        <v>0.645944857197578</v>
+        <v>1.314664</v>
       </c>
       <c r="O2">
-        <v>0.5396104021237141</v>
+        <v>0.3670998900931974</v>
       </c>
       <c r="P2">
-        <v>0.5396104021237141</v>
+        <v>0.29145609216889</v>
       </c>
       <c r="Q2">
-        <v>0.2306622112850017</v>
+        <v>0.10254543533</v>
       </c>
       <c r="R2">
-        <v>0.2306622112850017</v>
+        <v>0.41018174132</v>
       </c>
       <c r="S2">
-        <v>0.2846697411241024</v>
+        <v>0.03855893443682689</v>
       </c>
       <c r="T2">
-        <v>0.2846697411241024</v>
+        <v>0.02312433023337096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,185 +590,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.357092728140489</v>
+        <v>0.1560025</v>
       </c>
       <c r="H3">
-        <v>0.357092728140489</v>
+        <v>0.312005</v>
       </c>
       <c r="I3">
-        <v>0.5275468004392498</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J3">
-        <v>0.5275468004392498</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.551112973146999</v>
+        <v>0.376755</v>
       </c>
       <c r="N3">
-        <v>0.551112973146999</v>
+        <v>1.130265</v>
       </c>
       <c r="O3">
-        <v>0.4603895978762858</v>
+        <v>0.2104061860552393</v>
       </c>
       <c r="P3">
-        <v>0.4603895978762858</v>
+        <v>0.2505755234913791</v>
       </c>
       <c r="Q3">
-        <v>0.1967984350946779</v>
+        <v>0.0587747218875</v>
       </c>
       <c r="R3">
-        <v>0.1967984350946779</v>
+        <v>0.352648331325</v>
       </c>
       <c r="S3">
-        <v>0.2428770593151474</v>
+        <v>0.02210035620317695</v>
       </c>
       <c r="T3">
-        <v>0.2428770593151474</v>
+        <v>0.0198808373175359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.319800256222536</v>
+        <v>0.1560025</v>
       </c>
       <c r="H4">
-        <v>0.319800256222536</v>
+        <v>0.312005</v>
       </c>
       <c r="I4">
-        <v>0.4724531995607502</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J4">
-        <v>0.4724531995607502</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.645944857197578</v>
+        <v>0.552705</v>
       </c>
       <c r="N4">
-        <v>0.645944857197578</v>
+        <v>1.658115</v>
       </c>
       <c r="O4">
-        <v>0.5396104021237141</v>
+        <v>0.3086688990555164</v>
       </c>
       <c r="P4">
-        <v>0.5396104021237141</v>
+        <v>0.3675978944175995</v>
       </c>
       <c r="Q4">
-        <v>0.2065733308374149</v>
+        <v>0.08622336176249999</v>
       </c>
       <c r="R4">
-        <v>0.2065733308374149</v>
+        <v>0.5173401705749999</v>
       </c>
       <c r="S4">
-        <v>0.2549406609996118</v>
+        <v>0.03242154019263691</v>
       </c>
       <c r="T4">
-        <v>0.2549406609996118</v>
+        <v>0.02916547408684339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.1560025</v>
+      </c>
+      <c r="H5">
+        <v>0.312005</v>
+      </c>
+      <c r="I5">
+        <v>0.1050366275703263</v>
+      </c>
+      <c r="J5">
+        <v>0.07934069952454829</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.203816</v>
+      </c>
+      <c r="N5">
+        <v>0.407632</v>
+      </c>
+      <c r="O5">
+        <v>0.1138250247960469</v>
+      </c>
+      <c r="P5">
+        <v>0.0903704899221314</v>
+      </c>
+      <c r="Q5">
+        <v>0.03179580554</v>
+      </c>
+      <c r="R5">
+        <v>0.12718322216</v>
+      </c>
+      <c r="S5">
+        <v>0.01195579673768554</v>
+      </c>
+      <c r="T5">
+        <v>0.007170057886798047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1331066666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.39932</v>
+      </c>
+      <c r="I6">
+        <v>0.08962084180570332</v>
+      </c>
+      <c r="J6">
+        <v>0.1015442961944284</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.657332</v>
+      </c>
+      <c r="N6">
+        <v>1.314664</v>
+      </c>
+      <c r="O6">
+        <v>0.3670998900931974</v>
+      </c>
+      <c r="P6">
+        <v>0.29145609216889</v>
+      </c>
+      <c r="Q6">
+        <v>0.08749527141333334</v>
+      </c>
+      <c r="R6">
+        <v>0.52497162848</v>
+      </c>
+      <c r="S6">
+        <v>0.03289980117693352</v>
+      </c>
+      <c r="T6">
+        <v>0.02959570375086839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1331066666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.39932</v>
+      </c>
+      <c r="I7">
+        <v>0.08962084180570332</v>
+      </c>
+      <c r="J7">
+        <v>0.1015442961944284</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.376755</v>
+      </c>
+      <c r="N7">
+        <v>1.130265</v>
+      </c>
+      <c r="O7">
+        <v>0.2104061860552393</v>
+      </c>
+      <c r="P7">
+        <v>0.2505755234913791</v>
+      </c>
+      <c r="Q7">
+        <v>0.0501486022</v>
+      </c>
+      <c r="R7">
+        <v>0.4513374198</v>
+      </c>
+      <c r="S7">
+        <v>0.01885677951539799</v>
+      </c>
+      <c r="T7">
+        <v>0.02544451517648255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1331066666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.39932</v>
+      </c>
+      <c r="I8">
+        <v>0.08962084180570332</v>
+      </c>
+      <c r="J8">
+        <v>0.1015442961944284</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.552705</v>
+      </c>
+      <c r="N8">
+        <v>1.658115</v>
+      </c>
+      <c r="O8">
+        <v>0.3086688990555164</v>
+      </c>
+      <c r="P8">
+        <v>0.3675978944175995</v>
+      </c>
+      <c r="Q8">
+        <v>0.07356872020000001</v>
+      </c>
+      <c r="R8">
+        <v>0.6621184818</v>
+      </c>
+      <c r="S8">
+        <v>0.02766316657259504</v>
+      </c>
+      <c r="T8">
+        <v>0.03732746947118894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1331066666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.39932</v>
+      </c>
+      <c r="I9">
+        <v>0.08962084180570332</v>
+      </c>
+      <c r="J9">
+        <v>0.1015442961944284</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.203816</v>
+      </c>
+      <c r="N9">
+        <v>0.407632</v>
+      </c>
+      <c r="O9">
+        <v>0.1138250247960469</v>
+      </c>
+      <c r="P9">
+        <v>0.0903704899221314</v>
+      </c>
+      <c r="Q9">
+        <v>0.02712926837333333</v>
+      </c>
+      <c r="R9">
+        <v>0.16277561024</v>
+      </c>
+      <c r="S9">
+        <v>0.01020109454077678</v>
+      </c>
+      <c r="T9">
+        <v>0.009176607795888516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.395809</v>
+      </c>
+      <c r="H10">
+        <v>1.187427</v>
+      </c>
+      <c r="I10">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J10">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.657332</v>
+      </c>
+      <c r="N10">
+        <v>1.314664</v>
+      </c>
+      <c r="O10">
+        <v>0.3670998900931974</v>
+      </c>
+      <c r="P10">
+        <v>0.29145609216889</v>
+      </c>
+      <c r="Q10">
+        <v>0.260177921588</v>
+      </c>
+      <c r="R10">
+        <v>1.561067529528</v>
+      </c>
+      <c r="S10">
+        <v>0.09783159424051548</v>
+      </c>
+      <c r="T10">
+        <v>0.0880064552684123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.395809</v>
+      </c>
+      <c r="H11">
+        <v>1.187427</v>
+      </c>
+      <c r="I11">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J11">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.376755</v>
+      </c>
+      <c r="N11">
+        <v>1.130265</v>
+      </c>
+      <c r="O11">
+        <v>0.2104061860552393</v>
+      </c>
+      <c r="P11">
+        <v>0.2505755234913791</v>
+      </c>
+      <c r="Q11">
+        <v>0.149123019795</v>
+      </c>
+      <c r="R11">
+        <v>1.342107178155</v>
+      </c>
+      <c r="S11">
+        <v>0.05607294683369348</v>
+      </c>
+      <c r="T11">
+        <v>0.07566238686383138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.395809</v>
+      </c>
+      <c r="H12">
+        <v>1.187427</v>
+      </c>
+      <c r="I12">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J12">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.552705</v>
+      </c>
+      <c r="N12">
+        <v>1.658115</v>
+      </c>
+      <c r="O12">
+        <v>0.3086688990555164</v>
+      </c>
+      <c r="P12">
+        <v>0.3675978944175995</v>
+      </c>
+      <c r="Q12">
+        <v>0.218765613345</v>
+      </c>
+      <c r="R12">
+        <v>1.968890520105</v>
+      </c>
+      <c r="S12">
+        <v>0.08225981892666735</v>
+      </c>
+      <c r="T12">
+        <v>0.1109978090047217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.395809</v>
+      </c>
+      <c r="H13">
+        <v>1.187427</v>
+      </c>
+      <c r="I13">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J13">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.203816</v>
+      </c>
+      <c r="N13">
+        <v>0.407632</v>
+      </c>
+      <c r="O13">
+        <v>0.1138250247960469</v>
+      </c>
+      <c r="P13">
+        <v>0.0903704899221314</v>
+      </c>
+      <c r="Q13">
+        <v>0.080672207144</v>
+      </c>
+      <c r="R13">
+        <v>0.484033242864</v>
+      </c>
+      <c r="S13">
+        <v>0.03033420586815323</v>
+      </c>
+      <c r="T13">
+        <v>0.02728776887020062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.319800256222536</v>
-      </c>
-      <c r="H5">
-        <v>0.319800256222536</v>
-      </c>
-      <c r="I5">
-        <v>0.4724531995607502</v>
-      </c>
-      <c r="J5">
-        <v>0.4724531995607502</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.551112973146999</v>
-      </c>
-      <c r="N5">
-        <v>0.551112973146999</v>
-      </c>
-      <c r="O5">
-        <v>0.4603895978762858</v>
-      </c>
-      <c r="P5">
-        <v>0.4603895978762858</v>
-      </c>
-      <c r="Q5">
-        <v>0.1762460700199739</v>
-      </c>
-      <c r="R5">
-        <v>0.1762460700199739</v>
-      </c>
-      <c r="S5">
-        <v>0.2175125385611384</v>
-      </c>
-      <c r="T5">
-        <v>0.2175125385611384</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.299346</v>
+      </c>
+      <c r="I14">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J14">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.657332</v>
+      </c>
+      <c r="N14">
+        <v>1.314664</v>
+      </c>
+      <c r="O14">
+        <v>0.3670998900931974</v>
+      </c>
+      <c r="P14">
+        <v>0.29145609216889</v>
+      </c>
+      <c r="Q14">
+        <v>0.2847005682906666</v>
+      </c>
+      <c r="R14">
+        <v>1.708203409744</v>
+      </c>
+      <c r="S14">
+        <v>0.1070525519884901</v>
+      </c>
+      <c r="T14">
+        <v>0.09630136052758648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.299346</v>
+      </c>
+      <c r="I15">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J15">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.376755</v>
+      </c>
+      <c r="N15">
+        <v>1.130265</v>
+      </c>
+      <c r="O15">
+        <v>0.2104061860552393</v>
+      </c>
+      <c r="P15">
+        <v>0.2505755234913791</v>
+      </c>
+      <c r="Q15">
+        <v>0.16317836741</v>
+      </c>
+      <c r="R15">
+        <v>1.46860530669</v>
+      </c>
+      <c r="S15">
+        <v>0.06135801120959207</v>
+      </c>
+      <c r="T15">
+        <v>0.08279382203872056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.299346</v>
+      </c>
+      <c r="I16">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J16">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.552705</v>
+      </c>
+      <c r="N16">
+        <v>1.658115</v>
+      </c>
+      <c r="O16">
+        <v>0.3086688990555164</v>
+      </c>
+      <c r="P16">
+        <v>0.3675978944175995</v>
+      </c>
+      <c r="Q16">
+        <v>0.23938501031</v>
+      </c>
+      <c r="R16">
+        <v>2.15446509279</v>
+      </c>
+      <c r="S16">
+        <v>0.09001308432694347</v>
+      </c>
+      <c r="T16">
+        <v>0.1214597269045163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.299346</v>
+      </c>
+      <c r="I17">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J17">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.203816</v>
+      </c>
+      <c r="N17">
+        <v>0.407632</v>
+      </c>
+      <c r="O17">
+        <v>0.1138250247960469</v>
+      </c>
+      <c r="P17">
+        <v>0.0903704899221314</v>
+      </c>
+      <c r="Q17">
+        <v>0.08827583477866666</v>
+      </c>
+      <c r="R17">
+        <v>0.529655008672</v>
+      </c>
+      <c r="S17">
+        <v>0.03319330709000336</v>
+      </c>
+      <c r="T17">
+        <v>0.02985973312921105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3671865</v>
+      </c>
+      <c r="H18">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J18">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.657332</v>
+      </c>
+      <c r="N18">
+        <v>1.314664</v>
+      </c>
+      <c r="O18">
+        <v>0.3670998900931974</v>
+      </c>
+      <c r="P18">
+        <v>0.29145609216889</v>
+      </c>
+      <c r="Q18">
+        <v>0.241363436418</v>
+      </c>
+      <c r="R18">
+        <v>0.9654537456720002</v>
+      </c>
+      <c r="S18">
+        <v>0.09075700825043148</v>
+      </c>
+      <c r="T18">
+        <v>0.05442824238865189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3671865</v>
+      </c>
+      <c r="H19">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J19">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.376755</v>
+      </c>
+      <c r="N19">
+        <v>1.130265</v>
+      </c>
+      <c r="O19">
+        <v>0.2104061860552393</v>
+      </c>
+      <c r="P19">
+        <v>0.2505755234913791</v>
+      </c>
+      <c r="Q19">
+        <v>0.1383393498075</v>
+      </c>
+      <c r="R19">
+        <v>0.8300360988450001</v>
+      </c>
+      <c r="S19">
+        <v>0.05201809229337885</v>
+      </c>
+      <c r="T19">
+        <v>0.04679396209480873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3671865</v>
+      </c>
+      <c r="H20">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J20">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.552705</v>
+      </c>
+      <c r="N20">
+        <v>1.658115</v>
+      </c>
+      <c r="O20">
+        <v>0.3086688990555164</v>
+      </c>
+      <c r="P20">
+        <v>0.3675978944175995</v>
+      </c>
+      <c r="Q20">
+        <v>0.2029458144825</v>
+      </c>
+      <c r="R20">
+        <v>1.217674886895</v>
+      </c>
+      <c r="S20">
+        <v>0.0763112890366736</v>
+      </c>
+      <c r="T20">
+        <v>0.06864741495032915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3671865</v>
+      </c>
+      <c r="H21">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J21">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.203816</v>
+      </c>
+      <c r="N21">
+        <v>0.407632</v>
+      </c>
+      <c r="O21">
+        <v>0.1138250247960469</v>
+      </c>
+      <c r="P21">
+        <v>0.0903704899221314</v>
+      </c>
+      <c r="Q21">
+        <v>0.07483848368400001</v>
+      </c>
+      <c r="R21">
+        <v>0.299353934736</v>
+      </c>
+      <c r="S21">
+        <v>0.02814062055942802</v>
+      </c>
+      <c r="T21">
+        <v>0.01687632224003315</v>
       </c>
     </row>
   </sheetData>
